--- a/Results/Results_S2.xlsx
+++ b/Results/Results_S2.xlsx
@@ -404,25 +404,25 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>21.13602999991566</v>
+        <v>21.13602999991303</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-7.720560980355423E-07</v>
+        <v>-7.720553435036679E-07</v>
       </c>
       <c r="F2">
-        <v>0.2416220712410438</v>
+        <v>0.2429359398155243</v>
       </c>
       <c r="G2">
-        <v>3667.405167148122</v>
+        <v>3657.212172385902</v>
       </c>
       <c r="H2">
-        <v>0.5763211054302907</v>
+        <v>0.5779273666292173</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>21.87499382997404</v>
+        <v>21.87499382997181</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>3.86029E-07</v>
       </c>
       <c r="F3">
-        <v>0.2800378962132621</v>
+        <v>0.2810465917672703</v>
       </c>
       <c r="G3">
-        <v>3751.484517162321</v>
+        <v>3754.341545634866</v>
       </c>
       <c r="H3">
-        <v>0.5831023353528487</v>
+        <v>0.5826585984273498</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         <v>2025</v>
       </c>
       <c r="B4">
-        <v>22.61379504997446</v>
+        <v>22.61379504996888</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3.860270980355423E-07</v>
+        <v>3.860263435036679E-07</v>
       </c>
       <c r="F4">
-        <v>0.3007676853108541</v>
+        <v>0.3023404908804053</v>
       </c>
       <c r="G4">
-        <v>3914.628097391587</v>
+        <v>3926.549510483434</v>
       </c>
       <c r="H4">
-        <v>0.5776741618199335</v>
+        <v>0.5759202829250633</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>2026</v>
       </c>
       <c r="B5">
-        <v>23.31961550995653</v>
+        <v>23.31961550990591</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3147130163798988</v>
+        <v>0.3155688877540641</v>
       </c>
       <c r="G5">
-        <v>4084.434636436104</v>
+        <v>4108.00129283187</v>
       </c>
       <c r="H5">
-        <v>0.5709386386534072</v>
+        <v>0.567663295301215</v>
       </c>
     </row>
     <row r="6">
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3211854337642611</v>
+        <v>0.3223510320401817</v>
       </c>
       <c r="G6">
-        <v>4295.281992103867</v>
+        <v>4297.407113996655</v>
       </c>
       <c r="H6">
-        <v>0.5612049577715167</v>
+        <v>0.5609274348581729</v>
       </c>
     </row>
     <row r="7">
@@ -534,25 +534,25 @@
         <v>2028</v>
       </c>
       <c r="B7">
-        <v>24.99199342988444</v>
+        <v>24.99199342987444</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>45.940086698</v>
+        <v>50.12566026499999</v>
       </c>
       <c r="F7">
-        <v>0.3647999081003213</v>
+        <v>0.3663702942492986</v>
       </c>
       <c r="G7">
-        <v>4494.253847983246</v>
+        <v>4507.338960230962</v>
       </c>
       <c r="H7">
-        <v>0.5560877127823867</v>
+        <v>0.5544733522458187</v>
       </c>
     </row>
     <row r="8">
@@ -560,7 +560,7 @@
         <v>2029</v>
       </c>
       <c r="B8">
-        <v>25.98912602995605</v>
+        <v>25.98912602995889</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -569,16 +569,16 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>58.553426298</v>
+        <v>50.125660265</v>
       </c>
       <c r="F8">
-        <v>0.3659781121259737</v>
+        <v>0.3660677534359533</v>
       </c>
       <c r="G8">
-        <v>4664.903853791971</v>
+        <v>4664.08325602357</v>
       </c>
       <c r="H8">
-        <v>0.5571202932474207</v>
+        <v>0.5572183128676885</v>
       </c>
     </row>
     <row r="9">
@@ -586,25 +586,25 @@
         <v>2030</v>
       </c>
       <c r="B9">
-        <v>27.22151567996571</v>
+        <v>27.22151567996369</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>104.146810885</v>
+        <v>67.38647562243641</v>
       </c>
       <c r="F9">
-        <v>0.3847833480830558</v>
+        <v>0.3854132385370957</v>
       </c>
       <c r="G9">
-        <v>4814.7302283079</v>
+        <v>4805.90949083478</v>
       </c>
       <c r="H9">
-        <v>0.5653798736203026</v>
+        <v>0.5664175684514473</v>
       </c>
     </row>
     <row r="10">
@@ -612,25 +612,25 @@
         <v>2031</v>
       </c>
       <c r="B10">
-        <v>27.85923207996336</v>
+        <v>27.85923207996592</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>215.5208632348436</v>
+        <v>220.2353592769195</v>
       </c>
       <c r="F10">
-        <v>0.381954903689892</v>
+        <v>0.3828738558137177</v>
       </c>
       <c r="G10">
-        <v>5009.664518390917</v>
+        <v>4987.251217864619</v>
       </c>
       <c r="H10">
-        <v>0.5561097350469215</v>
+        <v>0.5586089583811732</v>
       </c>
     </row>
     <row r="11">
@@ -638,25 +638,25 @@
         <v>2032</v>
       </c>
       <c r="B11">
-        <v>28.46385891996302</v>
+        <v>28.46385891996019</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>199.0993749537894</v>
+        <v>190.6254554704508</v>
       </c>
       <c r="F11">
-        <v>0.3770701955154693</v>
+        <v>0.3774139506907817</v>
       </c>
       <c r="G11">
-        <v>5207.441246498868</v>
+        <v>5195.005815058338</v>
       </c>
       <c r="H11">
-        <v>0.5465997132296057</v>
+        <v>0.5479081243269128</v>
       </c>
     </row>
     <row r="12">
@@ -664,25 +664,25 @@
         <v>2033</v>
       </c>
       <c r="B12">
-        <v>29.10164526999475</v>
+        <v>29.10164526999474</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>353.2131078858533</v>
+        <v>364.3634029514913</v>
       </c>
       <c r="F12">
-        <v>0.3319939973977205</v>
+        <v>0.3310637573392921</v>
       </c>
       <c r="G12">
-        <v>5474.001055380418</v>
+        <v>5468.825389380543</v>
       </c>
       <c r="H12">
-        <v>0.5316338995110466</v>
+        <v>0.5321370348833007</v>
       </c>
     </row>
     <row r="13">
@@ -690,25 +690,25 @@
         <v>2034</v>
       </c>
       <c r="B13">
-        <v>29.74282199996059</v>
+        <v>29.74282199996686</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>5.000000013992965</v>
       </c>
       <c r="D13">
         <v>35</v>
       </c>
       <c r="E13">
-        <v>351.8753622806316</v>
+        <v>360.1078749434695</v>
       </c>
       <c r="F13">
-        <v>0.3184063850299623</v>
+        <v>0.3199459227193345</v>
       </c>
       <c r="G13">
-        <v>5713.293548869252</v>
+        <v>5712.71101711458</v>
       </c>
       <c r="H13">
-        <v>0.5205897744541264</v>
+        <v>0.5206428595961011</v>
       </c>
     </row>
     <row r="14">
@@ -716,25 +716,25 @@
         <v>2035</v>
       </c>
       <c r="B14">
-        <v>30.33899673995449</v>
+        <v>30.3389967399616</v>
       </c>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14">
-        <v>283.031402684842</v>
+        <v>263.3234432383766</v>
       </c>
       <c r="F14">
-        <v>0.3174594353054272</v>
+        <v>0.3225882980186723</v>
       </c>
       <c r="G14">
-        <v>5884.812659078847</v>
+        <v>5911.05697197583</v>
       </c>
       <c r="H14">
-        <v>0.5155473673940789</v>
+        <v>0.5132584051176974</v>
       </c>
     </row>
     <row r="15">
@@ -742,25 +742,25 @@
         <v>2036</v>
       </c>
       <c r="B15">
-        <v>30.55337515994837</v>
+        <v>30.55337515996858</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>6.999999986158552</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>330.3609592616512</v>
+        <v>329.7690017152662</v>
       </c>
       <c r="F15">
-        <v>0.3048589982757504</v>
+        <v>0.3113104022545897</v>
       </c>
       <c r="G15">
-        <v>6004.139823528608</v>
+        <v>6020.482564941773</v>
       </c>
       <c r="H15">
-        <v>0.5088718127485625</v>
+        <v>0.5074904682539194</v>
       </c>
     </row>
     <row r="16">
@@ -768,25 +768,25 @@
         <v>2037</v>
       </c>
       <c r="B16">
-        <v>30.78208348994953</v>
+        <v>30.78208348995901</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>252.5689296001847</v>
+        <v>267.012032266509</v>
       </c>
       <c r="F16">
-        <v>0.2792649804794761</v>
+        <v>0.2860594173261237</v>
       </c>
       <c r="G16">
-        <v>6144.208303182731</v>
+        <v>6159.884177319526</v>
       </c>
       <c r="H16">
-        <v>0.5009934880300894</v>
+        <v>0.4997185434638129</v>
       </c>
     </row>
     <row r="17">
@@ -794,25 +794,25 @@
         <v>2038</v>
       </c>
       <c r="B17">
-        <v>31.00310876997244</v>
+        <v>31.00310876998401</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>263.1674392895827</v>
+        <v>284.4107743913463</v>
       </c>
       <c r="F17">
-        <v>0.269698298699899</v>
+        <v>0.275847131739776</v>
       </c>
       <c r="G17">
-        <v>6262.284429272798</v>
+        <v>6274.332603380203</v>
       </c>
       <c r="H17">
-        <v>0.4950766628396763</v>
+        <v>0.4941260008001734</v>
       </c>
     </row>
     <row r="18">
@@ -820,25 +820,25 @@
         <v>2039</v>
       </c>
       <c r="B18">
-        <v>31.19056711994903</v>
+        <v>31.19056711995681</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>217.0884050320738</v>
+        <v>242.9058946119717</v>
       </c>
       <c r="F18">
-        <v>0.2712016169757587</v>
+        <v>0.276403726832346</v>
       </c>
       <c r="G18">
-        <v>6406.051546546738</v>
+        <v>6431.78682902958</v>
       </c>
       <c r="H18">
-        <v>0.4868922282831566</v>
+        <v>0.4849440435304788</v>
       </c>
     </row>
     <row r="19">
@@ -846,25 +846,25 @@
         <v>2040</v>
       </c>
       <c r="B19">
-        <v>31.3613463399483</v>
+        <v>31.36134633995734</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>212.5495478060291</v>
+        <v>205.9909204948982</v>
       </c>
       <c r="F19">
-        <v>0.2709802491387169</v>
+        <v>0.2762300442159518</v>
       </c>
       <c r="G19">
-        <v>6521.456622924225</v>
+        <v>6539.650957241288</v>
       </c>
       <c r="H19">
-        <v>0.4808948085264708</v>
+        <v>0.4795568837696336</v>
       </c>
     </row>
     <row r="20">
@@ -872,7 +872,7 @@
         <v>2041</v>
       </c>
       <c r="B20">
-        <v>31.40993452996238</v>
+        <v>31.40993452997044</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -881,16 +881,16 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>151.1274593304678</v>
+        <v>155.1575451265325</v>
       </c>
       <c r="F20">
-        <v>0.2671772661453176</v>
+        <v>0.2729897152345186</v>
       </c>
       <c r="G20">
-        <v>6568.310836183406</v>
+        <v>6594.367667134434</v>
       </c>
       <c r="H20">
-        <v>0.4782041427901346</v>
+        <v>0.4763145780680978</v>
       </c>
     </row>
     <row r="21">
@@ -898,25 +898,25 @@
         <v>2042</v>
       </c>
       <c r="B21">
-        <v>31.44015586996259</v>
+        <v>31.44015586997127</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21">
-        <v>89.05923533280345</v>
+        <v>83.67055736978689</v>
       </c>
       <c r="F21">
-        <v>0.2458587164202127</v>
+        <v>0.2516711655094153</v>
       </c>
       <c r="G21">
-        <v>6610.116445066505</v>
+        <v>6633.012362057476</v>
       </c>
       <c r="H21">
-        <v>0.4756369442391308</v>
+        <v>0.4739951345457607</v>
       </c>
     </row>
     <row r="22">
@@ -924,25 +924,25 @@
         <v>2043</v>
       </c>
       <c r="B22">
-        <v>31.44265158996147</v>
+        <v>31.4426515899704</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>150.7450745548043</v>
+        <v>104.2423199513168</v>
       </c>
       <c r="F22">
-        <v>0.2351092195225128</v>
+        <v>0.2428704594071747</v>
       </c>
       <c r="G22">
-        <v>6703.13246562166</v>
+        <v>6681.444901230538</v>
       </c>
       <c r="H22">
-        <v>0.469074000121903</v>
+        <v>0.4705965858399809</v>
       </c>
     </row>
     <row r="23">
@@ -950,25 +950,25 @@
         <v>2044</v>
       </c>
       <c r="B23">
-        <v>31.42525142996359</v>
+        <v>31.42525142997249</v>
       </c>
       <c r="C23">
-        <v>6.00000060449496</v>
+        <v>8.00000005738662</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>179.3892263483746</v>
+        <v>180.0298752901483</v>
       </c>
       <c r="F23">
-        <v>0.2379752376954841</v>
+        <v>0.2477134225436995</v>
       </c>
       <c r="G23">
-        <v>6821.123099160648</v>
+        <v>6822.208081542055</v>
       </c>
       <c r="H23">
-        <v>0.4607049451113194</v>
+        <v>0.460631676055083</v>
       </c>
     </row>
     <row r="24">
@@ -976,25 +976,25 @@
         <v>2045</v>
       </c>
       <c r="B24">
-        <v>31.37385642996198</v>
+        <v>31.37385642997133</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>138.8414881308854</v>
+        <v>140.8887298231378</v>
       </c>
       <c r="F24">
-        <v>0.2400888923863047</v>
+        <v>0.250105382835819</v>
       </c>
       <c r="G24">
-        <v>6870.250772556168</v>
+        <v>6880.294698091778</v>
       </c>
       <c r="H24">
-        <v>0.456662463549186</v>
+        <v>0.4559958229503272</v>
       </c>
     </row>
     <row r="25">
@@ -1002,25 +1002,25 @@
         <v>2046</v>
       </c>
       <c r="B25">
-        <v>31.22650743005668</v>
+        <v>31.22650743008037</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4.999999972800943</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>131.4958180936237</v>
+        <v>125.8153796792718</v>
       </c>
       <c r="F25">
-        <v>0.239307393786856</v>
+        <v>0.2467965335534115</v>
       </c>
       <c r="G25">
-        <v>6869.72592164141</v>
+        <v>6873.929182424129</v>
       </c>
       <c r="H25">
-        <v>0.4545524491986663</v>
+        <v>0.4542745000912007</v>
       </c>
     </row>
     <row r="26">
@@ -1028,25 +1028,25 @@
         <v>2047</v>
       </c>
       <c r="B26">
-        <v>31.07599652996753</v>
+        <v>31.07599652997714</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>224.3285168611756</v>
+        <v>222.2702448282003</v>
       </c>
       <c r="F26">
-        <v>0.2653827560650802</v>
+        <v>0.2771755285796327</v>
       </c>
       <c r="G26">
-        <v>6833.01992299089</v>
+        <v>6822.902463561311</v>
       </c>
       <c r="H26">
-        <v>0.4547915399076609</v>
+        <v>0.4554659354423276</v>
       </c>
     </row>
     <row r="27">
@@ -1054,25 +1054,25 @@
         <v>2048</v>
       </c>
       <c r="B27">
-        <v>30.94477248996585</v>
+        <v>30.94477249000234</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>21.99999997884393</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E27">
-        <v>331.7437605324239</v>
+        <v>351.4163166375222</v>
       </c>
       <c r="F27">
-        <v>0.2772786032829785</v>
+        <v>0.2893911295629741</v>
       </c>
       <c r="G27">
-        <v>6828.294594997221</v>
+        <v>6818.330678440493</v>
       </c>
       <c r="H27">
-        <v>0.4531844966477818</v>
+        <v>0.4538467544240625</v>
       </c>
     </row>
     <row r="28">
@@ -1080,25 +1080,25 @@
         <v>2049</v>
       </c>
       <c r="B28">
-        <v>30.83062285997072</v>
+        <v>30.83062286000491</v>
       </c>
       <c r="C28">
-        <v>34.99999973903239</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E28">
-        <v>441.7527496524779</v>
+        <v>460.5643952549586</v>
       </c>
       <c r="F28">
-        <v>0.2707070403739697</v>
+        <v>0.279819520828324</v>
       </c>
       <c r="G28">
-        <v>6893.56235505217</v>
+        <v>6878.909397507718</v>
       </c>
       <c r="H28">
-        <v>0.447237890542551</v>
+        <v>0.4481905644981323</v>
       </c>
     </row>
     <row r="29">
@@ -1106,25 +1106,25 @@
         <v>2050</v>
       </c>
       <c r="B29">
-        <v>30.7230919799707</v>
+        <v>30.72309198001023</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>33.99999971617449</v>
       </c>
       <c r="D29">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E29">
-        <v>409.3787484887443</v>
+        <v>445.7738139067373</v>
       </c>
       <c r="F29">
-        <v>0.2730237328180217</v>
+        <v>0.2816342350166668</v>
       </c>
       <c r="G29">
-        <v>6995.739198290549</v>
+        <v>6987.707343726833</v>
       </c>
       <c r="H29">
-        <v>0.4391686297779379</v>
+        <v>0.4396734217495769</v>
       </c>
     </row>
   </sheetData>
